--- a/LISTRIK.xlsx
+++ b/LISTRIK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KUMPULAN TUGAS\folder_penting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A44292-67A4-4A97-85A7-1ADEB4894BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C702CC-CCBE-4381-85EC-0619CCFB079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9727C530-19AC-4ABF-94B4-8C90F3C06E57}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9727C530-19AC-4ABF-94B4-8C90F3C06E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
   <si>
     <t>bulan</t>
   </si>
@@ -256,6 +256,9 @@
   <si>
     <t xml:space="preserve">total sisa kas  listrik </t>
   </si>
+  <si>
+    <t>106500+88500</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -890,11 +893,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1110,6 +1133,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11147,8 +11176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF9DB30-37C4-4875-8F2A-BFD7801D6EA4}">
   <dimension ref="C4:CX130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CW12" sqref="CW12"/>
+    <sheetView tabSelected="1" topLeftCell="CC5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CT21" sqref="CT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11177,6 +11206,7 @@
     <col min="90" max="90" width="12.81640625" customWidth="1"/>
     <col min="94" max="94" width="5.7265625" customWidth="1"/>
     <col min="95" max="95" width="10.453125" customWidth="1"/>
+    <col min="99" max="99" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11639,12 +11669,12 @@
       <c r="CQ9" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="CR9" s="123">
-        <v>106500</v>
+      <c r="CR9" s="123" t="s">
+        <v>66</v>
       </c>
       <c r="CS9" s="124"/>
       <c r="CT9" s="123">
-        <v>88500</v>
+        <v>0</v>
       </c>
       <c r="CU9" s="124"/>
     </row>
@@ -12241,6 +12271,10 @@
         <v>19500</v>
       </c>
       <c r="CS15" s="101"/>
+      <c r="CT15" s="125">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="126"/>
     </row>
     <row r="16" spans="6:102" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F16" s="112"/>
@@ -12310,7 +12344,7 @@
       <c r="CK16" s="46"/>
       <c r="CL16" s="49"/>
     </row>
-    <row r="17" spans="6:90" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:99" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F17" s="112"/>
       <c r="G17" s="3">
         <v>10</v>
@@ -12380,8 +12414,12 @@
       <c r="CJ17" s="45"/>
       <c r="CK17" s="46"/>
       <c r="CL17" s="49"/>
-    </row>
-    <row r="18" spans="6:90" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="CU17" s="48">
+        <f>SUM(CT8:CU14)</f>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:99" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F18" s="112"/>
       <c r="G18" s="3">
         <v>11</v>
@@ -12449,7 +12487,7 @@
       <c r="CK18" s="46"/>
       <c r="CL18" s="49"/>
     </row>
-    <row r="19" spans="6:90" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:99" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F19" s="112"/>
       <c r="G19" s="3">
         <v>12</v>
@@ -12520,7 +12558,7 @@
       <c r="CK19" s="46"/>
       <c r="CL19" s="49"/>
     </row>
-    <row r="20" spans="6:90" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:99" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F20" s="112"/>
       <c r="G20" s="3">
         <v>13</v>
@@ -12664,7 +12702,7 @@
       <c r="CK20" s="46"/>
       <c r="CL20" s="49"/>
     </row>
-    <row r="21" spans="6:90" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:99" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F21" s="112"/>
       <c r="G21" s="3">
         <v>14</v>
@@ -12800,7 +12838,7 @@
       <c r="CK21" s="46"/>
       <c r="CL21" s="49"/>
     </row>
-    <row r="22" spans="6:90" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:99" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F22" s="112"/>
       <c r="G22" s="3">
         <v>15</v>
@@ -12923,7 +12961,7 @@
       <c r="CK22" s="46"/>
       <c r="CL22" s="49"/>
     </row>
-    <row r="23" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F23" s="112"/>
       <c r="G23" s="3">
         <v>16</v>
@@ -13029,7 +13067,7 @@
       <c r="CK23" s="46"/>
       <c r="CL23" s="49"/>
     </row>
-    <row r="24" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F24" s="112"/>
       <c r="G24" s="3">
         <v>17</v>
@@ -13130,7 +13168,7 @@
       <c r="CK24" s="46"/>
       <c r="CL24" s="49"/>
     </row>
-    <row r="25" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F25" s="112"/>
       <c r="G25" s="3">
         <v>18</v>
@@ -13222,7 +13260,7 @@
       <c r="CK25" s="46"/>
       <c r="CL25" s="49"/>
     </row>
-    <row r="26" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F26" s="112"/>
       <c r="G26" s="3">
         <v>19</v>
@@ -13314,7 +13352,7 @@
       <c r="CK26" s="46"/>
       <c r="CL26" s="49"/>
     </row>
-    <row r="27" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F27" s="112"/>
       <c r="G27" s="3">
         <v>20</v>
@@ -13406,7 +13444,7 @@
       <c r="CK27" s="46"/>
       <c r="CL27" s="49"/>
     </row>
-    <row r="28" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F28" s="112"/>
       <c r="G28" s="3">
         <v>21</v>
@@ -13498,7 +13536,7 @@
       <c r="CK28" s="46"/>
       <c r="CL28" s="49"/>
     </row>
-    <row r="29" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F29" s="112"/>
       <c r="G29" s="3">
         <v>22</v>
@@ -13590,7 +13628,7 @@
       <c r="CK29" s="46"/>
       <c r="CL29" s="49"/>
     </row>
-    <row r="30" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F30" s="112"/>
       <c r="G30" s="3">
         <v>23</v>
@@ -13682,7 +13720,7 @@
       <c r="CK30" s="46"/>
       <c r="CL30" s="49"/>
     </row>
-    <row r="31" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F31" s="112"/>
       <c r="G31" s="3">
         <v>24</v>
@@ -13774,7 +13812,7 @@
       <c r="CK31" s="46"/>
       <c r="CL31" s="49"/>
     </row>
-    <row r="32" spans="6:90" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:99" x14ac:dyDescent="0.35">
       <c r="F32" s="112"/>
       <c r="G32" s="3">
         <v>25</v>
@@ -19017,7 +19055,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="458">
+  <mergeCells count="459">
     <mergeCell ref="CR15:CS15"/>
     <mergeCell ref="CQ6:CX6"/>
     <mergeCell ref="CR7:CS7"/>
@@ -19036,6 +19074,7 @@
     <mergeCell ref="CT12:CU12"/>
     <mergeCell ref="CT13:CU13"/>
     <mergeCell ref="CT14:CU14"/>
+    <mergeCell ref="CT15:CU15"/>
     <mergeCell ref="BH6:BJ6"/>
     <mergeCell ref="BQ6:BS6"/>
     <mergeCell ref="CE6:CF6"/>
